--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>819906.0527523761</v>
+        <v>817387.3843378974</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>199.1597993050267</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>41.24068147581188</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>148.1776514406542</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>63.95339141837465</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>53.72236532527866</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>223.392207948002</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>64.3368161261362</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>78.86261552750632</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.5795890980523</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>20.9236587943919</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.60662835550704</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.79151870100704</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,7 +1345,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>144.8662496217948</v>
+        <v>3.171820953553796</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114108</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403528</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.1004521009517</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.68381494533802</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146345</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6388439349721</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754665</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,7 +1819,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>122.3929313096815</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695614</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833787</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.07327741456176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986308</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>44.75138076689305</v>
+        <v>99.97427419833336</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>99.76859704213604</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826188977</v>
       </c>
       <c r="H28" t="n">
-        <v>69.82863813027248</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>116.9323399797397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>66.39615665301197</v>
+        <v>99.97427419834325</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576157</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419834234</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>84.079814734029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>20.66101211579002</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20.92847288552921</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>184.6527153981526</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833883</v>
       </c>
       <c r="G46" t="n">
-        <v>106.3434154283418</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1128.666547093599</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>759.7040301531875</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>759.7040301531875</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549433</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057398</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1905.405719133533</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1905.405719133533</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1515.266387157721</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>790.7764984014359</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>687.7175161961455</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>687.7175161961455</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>537.6008767838098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>389.6877832014167</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063346</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>869.3659810263853</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>869.3659810263853</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="Y4" t="n">
-        <v>869.3659810263853</v>
+        <v>349.6600800990971</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660.900948886693</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.635933406614</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>754.255035418694</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>754.255035418694</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>343.2691306290864</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926626</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.500788950815</v>
+        <v>1112.520734025444</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>638.3296170496756</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.9724752679349</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C7" t="n">
-        <v>514.036292340028</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1374.830689278665</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1374.830689278665</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1374.830689278665</v>
+        <v>1034.596277341134</v>
       </c>
       <c r="W7" t="n">
-        <v>1085.413519241705</v>
+        <v>745.1791073041734</v>
       </c>
       <c r="X7" t="n">
-        <v>1085.413519241705</v>
+        <v>517.189556406156</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.6209400981746</v>
+        <v>517.189556406156</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1530.167618932618</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805452</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.11669882964</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>879.9099329995254</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>710.9737500716185</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>560.8571106592827</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>412.9440170768896</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>266.0540695789792</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>266.0540695789792</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>119.836882796837</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995254</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.9099329995254</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2070.123830517139</v>
+        <v>1535.258832689352</v>
       </c>
       <c r="C11" t="n">
-        <v>1701.161313576728</v>
+        <v>1166.296315748941</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.895614969977</v>
+        <v>808.0306171421898</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374971</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469177</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386827</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420312</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878108</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687099</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234589</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455659</v>
+        <v>3826.588132455662</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455659</v>
+        <v>3622.786021971442</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088267</v>
+        <v>3369.29530560405</v>
       </c>
       <c r="V11" t="n">
-        <v>3573.097416088267</v>
+        <v>3038.232418260479</v>
       </c>
       <c r="W11" t="n">
-        <v>3220.328760818153</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2846.863002557073</v>
+        <v>2311.998004729286</v>
       </c>
       <c r="Y11" t="n">
-        <v>2456.723670581261</v>
+        <v>1921.858672753474</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792126</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>196.8120623792126</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0998698065218</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1133.413644050411</v>
+        <v>977.3905023848067</v>
       </c>
       <c r="N12" t="n">
-        <v>1674.721951401477</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2147.693504267226</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.961807107381</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.849288629729</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>606.3275805260477</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="C13" t="n">
-        <v>606.3275805260477</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="D13" t="n">
-        <v>456.2109411137119</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="E13" t="n">
-        <v>308.2978475313187</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="F13" t="n">
-        <v>245.990963748149</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.45504734577</v>
+        <v>368.4550473457707</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288891</v>
+        <v>717.500225288892</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014272</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370154</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.302075370154</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1599.211368810443</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1344.526880604556</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1055.109710567595</v>
+        <v>834.2956531176424</v>
       </c>
       <c r="X13" t="n">
-        <v>827.1201596695778</v>
+        <v>606.306102219625</v>
       </c>
       <c r="Y13" t="n">
-        <v>606.3275805260477</v>
+        <v>385.5135230760949</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060315</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060315</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="K15" t="n">
-        <v>242.926066115635</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="L15" t="n">
-        <v>733.6583989593863</v>
+        <v>525.8973588994251</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>659.5059801622135</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>490.5697972343066</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>490.5697972343066</v>
+        <v>175.0061676818304</v>
       </c>
       <c r="E16" t="n">
-        <v>342.6567036519136</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519136</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
         <v>2428.375774410168</v>
@@ -5467,19 +5467,19 @@
         <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1834.038233276848</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1579.353745070961</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1289.936575034001</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1061.947024135983</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>841.1544449924533</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5741,25 +5741,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048576</v>
+        <v>344.9174178121594</v>
       </c>
       <c r="D22" t="n">
-        <v>594.8179559048576</v>
+        <v>194.8007783998237</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5978,46 +5978,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770321</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>634.3345878491252</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367895</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>336.3048548543964</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072718</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>945.4026036630042</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C28" t="n">
-        <v>776.4664207350974</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D28" t="n">
-        <v>626.3497813227616</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="E28" t="n">
-        <v>478.4366877403684</v>
+        <v>113.9333885650321</v>
       </c>
       <c r="F28" t="n">
-        <v>331.5467402424581</v>
+        <v>113.9333885650321</v>
       </c>
       <c r="G28" t="n">
-        <v>164.350640957338</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630042</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6491,19 +6491,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,13 +6546,13 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683104</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>984.5772922261139</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>815.641109298207</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6622,16 +6622,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
         <v>2035.089393279803</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261139</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6783,16 +6783,16 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>513.853600740076</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121691</v>
       </c>
       <c r="D34" t="n">
-        <v>449.4852666057157</v>
+        <v>194.8007783998332</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4852666057157</v>
+        <v>194.8007783998332</v>
       </c>
       <c r="F34" t="n">
-        <v>302.5953191078054</v>
+        <v>194.8007783998333</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038389</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797792</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138459</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703157</v>
       </c>
     </row>
     <row r="35">
@@ -6914,55 +6914,55 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400755</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121687</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998328</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855602</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.2406881998</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V37" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W37" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138454</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703153</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778177</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654819</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830888</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851784</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,19 +7427,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.6673633290469</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C43" t="n">
-        <v>699.7311804011399</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2077.590354893596</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1788.515128237795</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1788.515128237795</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1499.097958200834</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X43" t="n">
-        <v>1271.108407302817</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.315828159287</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>639.9526724577793</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>489.8360330454435</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E46" t="n">
-        <v>489.8360330454435</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F46" t="n">
-        <v>342.9460855475332</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>73.66059580999814</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>45.76488231024507</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>45.76488231024484</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>273.6534998179984</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.76488231024575</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>237.064120450467</v>
+        <v>378.758549118708</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238038</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.14636899767615</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>83.73723307759323</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.29152613728968</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372911</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537665</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>163.7925202387389</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.265836318569</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.511375937533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>101.6825818796761</v>
+        <v>46.45968844823581</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>45.65245098079521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303791</v>
       </c>
       <c r="H28" t="n">
-        <v>70.46607471595138</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="D31" t="n">
-        <v>31.68313303847265</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922668</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856253</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.12798163925687</v>
+        <v>65.54986409392559</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844822683</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>168.057828589799</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>146.5858089828378</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228666</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>125.50548976104</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>32.75273492913565</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459241</v>
       </c>
       <c r="G46" t="n">
-        <v>59.18072286392702</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>910822.9601449651</v>
+        <v>910822.9601449653</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>991211.9918017485</v>
+        <v>991211.9918017483</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>996683.8561654182</v>
+        <v>996683.8561654177</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654177</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>996683.8561654181</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>996683.8561654182</v>
+        <v>996683.8561654179</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654181</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>996683.8561654178</v>
+        <v>996683.8561654179</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787486</v>
@@ -26323,10 +26323,10 @@
         <v>386954.437971345</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099662</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
@@ -26335,25 +26335,25 @@
         <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="M2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="N2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="O2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.964837253</v>
-      </c>
-      <c r="N2" t="n">
-        <v>423751.9648372531</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372534</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.139218515</v>
+        <v>143114.1392185158</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051389</v>
+        <v>166521.3471051378</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557898</v>
+        <v>11167.2362355788</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115297</v>
+        <v>37377.32855115335</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848937</v>
+        <v>43782.406558489</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
         <v>8628.135434438242</v>
@@ -26430,34 +26430,34 @@
         <v>8720.723770518931</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>8727.256391744293</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="O4" t="n">
-        <v>8727.256391744324</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214705</v>
+        <v>86093.72216214711</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26525,43 +26525,43 @@
         <v>202587.0197619208</v>
       </c>
       <c r="D6" t="n">
-        <v>42571.55701392205</v>
+        <v>42571.55701392193</v>
       </c>
       <c r="E6" t="n">
-        <v>149118.4411562447</v>
+        <v>148908.4769123991</v>
       </c>
       <c r="F6" t="n">
-        <v>146022.6807204699</v>
+        <v>145976.7757249052</v>
       </c>
       <c r="G6" t="n">
-        <v>302734.9423860228</v>
+        <v>302700.2044605874</v>
       </c>
       <c r="H6" t="n">
-        <v>313902.178621602</v>
+        <v>313867.440696166</v>
       </c>
       <c r="I6" t="n">
-        <v>313902.1786216016</v>
+        <v>313867.440696166</v>
       </c>
       <c r="J6" t="n">
-        <v>146297.0008116194</v>
+        <v>146262.2628861833</v>
       </c>
       <c r="K6" t="n">
-        <v>313902.1786216017</v>
+        <v>313867.440696166</v>
       </c>
       <c r="L6" t="n">
-        <v>265608.2086134111</v>
+        <v>265573.4706879755</v>
       </c>
       <c r="M6" t="n">
-        <v>276524.8500704487</v>
+        <v>276490.1121450128</v>
       </c>
       <c r="N6" t="n">
-        <v>270119.7720631123</v>
+        <v>270085.0341376771</v>
       </c>
       <c r="O6" t="n">
-        <v>310878.8806443774</v>
+        <v>310844.1427189415</v>
       </c>
       <c r="P6" t="n">
-        <v>313902.1786216017</v>
+        <v>313867.440696166</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086472</v>
+        <v>981.388327808648</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012569</v>
+        <v>122.3935669012576</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218306</v>
+        <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063543</v>
+        <v>149.9868724063552</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173585</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364165</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063543</v>
+        <v>149.9868724063552</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173583</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063543</v>
+        <v>149.9868724063552</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173585</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364165</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>150.0811694123863</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>328.4904192026572</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>31.65432874128314</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>81.46765660455659</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>311.5505264457289</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>188.155494824952</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>156.4118798710757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>173.2750277963217</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.15425256542824</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>328.3173099230211</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>43.56090170883105</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-3.452939267845068e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.183578997252513e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.255632527897967e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.477630421036315e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29682,13 +29682,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.074784788419493e-12</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -30037,13 +30037,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>3.941905428538445e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-4.08504658571054e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30174,13 +30174,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485646</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508988</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307177</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726052</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216967</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.664291385742</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898381</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294402</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615132</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596472</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256411</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845325</v>
+        <v>219.8517740430757</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147136</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431805</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205467</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>175.2216544116256</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533295</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697583</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761894</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570603</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929609</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826897</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,7 +32069,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4226615147952</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>574.9651909908055</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>210.3948924365571</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>295.974394015948</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>382.6869096644257</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,16 +33020,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>235.5705495535871</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33503,19 +33503,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>345.6771571865338</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N42" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>371.3409564478483</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>436.9619819031191</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>343.4452429480951</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>381.1895643063687</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040314</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276247</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517094</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584693</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077534</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062436</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156581</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116373</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457669</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625141</v>
+        <v>77.71774012105745</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313803</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987361</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062165</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.23988032560407</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>16.20240458936559</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701827</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190454</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998343</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053121</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5812225404362</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>436.4108112109312</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453884</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>161.9999866016177</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>244.1325298845515</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>92.97430510914269</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>55.96455263125056</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37151,19 +37151,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096392</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191315</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010438</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060491</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>207.1227774066596</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N42" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
